--- a/engish/data/output.xlsx
+++ b/engish/data/output.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>studentid</t>
   </si>
@@ -81,6 +81,10 @@
   </si>
   <si>
     <t>avg-(R-IR)-dtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R385"/>
+  <dimension ref="A1:S385"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="R306" sqref="R306:R321"/>
+    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="93" workbookViewId="0">
+      <selection activeCell="S306" sqref="S306:S321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -421,7 +425,7 @@
     <col min="18" max="18" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,8 +477,11 @@
       <c r="R1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2014012780</v>
       </c>
@@ -533,8 +540,11 @@
         <f>P2-Q2</f>
         <v>50.303174603174625</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2014012780</v>
       </c>
@@ -584,8 +594,9 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2014012780</v>
       </c>
@@ -635,8 +646,9 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2014012780</v>
       </c>
@@ -686,8 +698,9 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2014012780</v>
       </c>
@@ -737,8 +750,9 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2014012780</v>
       </c>
@@ -788,8 +802,9 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2014012780</v>
       </c>
@@ -839,8 +854,9 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2014012780</v>
       </c>
@@ -890,8 +906,9 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2014012780</v>
       </c>
@@ -941,8 +958,9 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2014012780</v>
       </c>
@@ -992,8 +1010,9 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2014012780</v>
       </c>
@@ -1043,8 +1062,9 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2014012780</v>
       </c>
@@ -1094,8 +1114,9 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2014012780</v>
       </c>
@@ -1145,8 +1166,9 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2014012780</v>
       </c>
@@ -1196,8 +1218,9 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2014012780</v>
       </c>
@@ -1247,8 +1270,9 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2014012780</v>
       </c>
@@ -1298,8 +1322,9 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2015011043</v>
       </c>
@@ -1358,8 +1383,11 @@
         <f t="shared" ref="R18" si="5">P18-Q18</f>
         <v>29.425000000000011</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2015011043</v>
       </c>
@@ -1409,8 +1437,9 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2015011043</v>
       </c>
@@ -1460,8 +1489,9 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2015011043</v>
       </c>
@@ -1511,8 +1541,9 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2015011043</v>
       </c>
@@ -1562,8 +1593,9 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2015011043</v>
       </c>
@@ -1613,8 +1645,9 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2015011043</v>
       </c>
@@ -1664,8 +1697,9 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2015011043</v>
       </c>
@@ -1715,8 +1749,9 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2015011043</v>
       </c>
@@ -1766,8 +1801,9 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2015011043</v>
       </c>
@@ -1817,8 +1853,9 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2015011043</v>
       </c>
@@ -1868,8 +1905,9 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2015011043</v>
       </c>
@@ -1919,8 +1957,9 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2015011043</v>
       </c>
@@ -1970,8 +2009,9 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2015011043</v>
       </c>
@@ -2021,8 +2061,9 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2015011043</v>
       </c>
@@ -2072,8 +2113,9 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2015011043</v>
       </c>
@@ -2123,8 +2165,9 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2015012653</v>
       </c>
@@ -2183,8 +2226,11 @@
         <f t="shared" ref="R34" si="7">P34-Q34</f>
         <v>86.749999999999986</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2015012653</v>
       </c>
@@ -2234,8 +2280,9 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2015012653</v>
       </c>
@@ -2285,8 +2332,9 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2015012653</v>
       </c>
@@ -2336,8 +2384,9 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2015012653</v>
       </c>
@@ -2387,8 +2436,9 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2015012653</v>
       </c>
@@ -2438,8 +2488,9 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="1"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2015012653</v>
       </c>
@@ -2489,8 +2540,9 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2015012653</v>
       </c>
@@ -2540,8 +2592,9 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2015012653</v>
       </c>
@@ -2591,8 +2644,9 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2015012653</v>
       </c>
@@ -2642,8 +2696,9 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="1"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2015012653</v>
       </c>
@@ -2693,8 +2748,9 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2015012653</v>
       </c>
@@ -2744,8 +2800,9 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2015012653</v>
       </c>
@@ -2795,8 +2852,9 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2015012653</v>
       </c>
@@ -2846,8 +2904,9 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="1"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2015012653</v>
       </c>
@@ -2897,8 +2956,9 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="1"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2015012653</v>
       </c>
@@ -2948,8 +3008,9 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="1"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2014011319</v>
       </c>
@@ -3008,8 +3069,11 @@
         <f t="shared" ref="R50" si="9">P50-Q50</f>
         <v>91.598412698412716</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2014011319</v>
       </c>
@@ -3059,8 +3123,9 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="1"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2014011319</v>
       </c>
@@ -3110,8 +3175,9 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="1"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2014011319</v>
       </c>
@@ -3161,8 +3227,9 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="1"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2014011319</v>
       </c>
@@ -3212,8 +3279,9 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="1"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2014011319</v>
       </c>
@@ -3263,8 +3331,9 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="1"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2014011319</v>
       </c>
@@ -3314,8 +3383,9 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="1"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2014011319</v>
       </c>
@@ -3365,8 +3435,9 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="1"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2014011319</v>
       </c>
@@ -3416,8 +3487,9 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="1"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2014011319</v>
       </c>
@@ -3467,8 +3539,9 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="1"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2014011319</v>
       </c>
@@ -3518,8 +3591,9 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="1"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2014011319</v>
       </c>
@@ -3569,8 +3643,9 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="1"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2014011319</v>
       </c>
@@ -3620,8 +3695,9 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="1"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2014011319</v>
       </c>
@@ -3671,8 +3747,9 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="1"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2014011319</v>
       </c>
@@ -3722,8 +3799,9 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="1"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2014011319</v>
       </c>
@@ -3773,8 +3851,9 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="1"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2015012679</v>
       </c>
@@ -3833,8 +3912,11 @@
         <f t="shared" ref="R66" si="11">P66-Q66</f>
         <v>32.593650793650795</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2015012679</v>
       </c>
@@ -3884,8 +3966,9 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="1"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2015012679</v>
       </c>
@@ -3935,8 +4018,9 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="1"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2015012679</v>
       </c>
@@ -3986,8 +4070,9 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="1"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2015012679</v>
       </c>
@@ -4037,8 +4122,9 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="1"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2015012679</v>
       </c>
@@ -4088,8 +4174,9 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="1"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2015012679</v>
       </c>
@@ -4139,8 +4226,9 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="1"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2015012679</v>
       </c>
@@ -4190,8 +4278,9 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="1"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2015012679</v>
       </c>
@@ -4241,8 +4330,9 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="1"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2015012679</v>
       </c>
@@ -4292,8 +4382,9 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="1"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2015012679</v>
       </c>
@@ -4343,8 +4434,9 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="1"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2015012679</v>
       </c>
@@ -4394,8 +4486,9 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="1"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2015012679</v>
       </c>
@@ -4445,8 +4538,9 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S78" s="1"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2015012679</v>
       </c>
@@ -4496,8 +4590,9 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S79" s="1"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2015012679</v>
       </c>
@@ -4547,8 +4642,9 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="1"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2015012679</v>
       </c>
@@ -4598,8 +4694,9 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="1"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2015012676</v>
       </c>
@@ -4658,8 +4755,11 @@
         <f t="shared" ref="R82" si="17">P82-Q82</f>
         <v>17.305454545454552</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2015012676</v>
       </c>
@@ -4709,8 +4809,9 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="1"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2015012676</v>
       </c>
@@ -4760,8 +4861,9 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="1"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2015012676</v>
       </c>
@@ -4811,8 +4913,9 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="1"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2015012676</v>
       </c>
@@ -4862,8 +4965,9 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="1"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2015012676</v>
       </c>
@@ -4913,8 +5017,9 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="1"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2015012676</v>
       </c>
@@ -4964,8 +5069,9 @@
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="1"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2015012676</v>
       </c>
@@ -5015,8 +5121,9 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="1"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2015012676</v>
       </c>
@@ -5066,8 +5173,9 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="1"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2015012676</v>
       </c>
@@ -5117,8 +5225,9 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="1"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2015012676</v>
       </c>
@@ -5168,8 +5277,9 @@
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="1"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2015012676</v>
       </c>
@@ -5219,8 +5329,9 @@
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="1"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2015012676</v>
       </c>
@@ -5270,8 +5381,9 @@
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="1"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2015012676</v>
       </c>
@@ -5321,8 +5433,9 @@
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="1"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2015012676</v>
       </c>
@@ -5372,8 +5485,9 @@
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="1"/>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2015012676</v>
       </c>
@@ -5423,8 +5537,9 @@
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="1"/>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2015012674</v>
       </c>
@@ -5483,8 +5598,11 @@
         <f t="shared" ref="R98" si="19">P98-Q98</f>
         <v>70.660317460317472</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2015012674</v>
       </c>
@@ -5534,8 +5652,9 @@
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="1"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2015012674</v>
       </c>
@@ -5585,8 +5704,9 @@
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="1"/>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2015012674</v>
       </c>
@@ -5636,8 +5756,9 @@
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="1"/>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2015012674</v>
       </c>
@@ -5687,8 +5808,9 @@
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S102" s="1"/>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2015012674</v>
       </c>
@@ -5738,8 +5860,9 @@
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S103" s="1"/>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2015012674</v>
       </c>
@@ -5789,8 +5912,9 @@
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S104" s="1"/>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2015012674</v>
       </c>
@@ -5840,8 +5964,9 @@
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S105" s="1"/>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2015012674</v>
       </c>
@@ -5891,8 +6016,9 @@
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S106" s="1"/>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2015012674</v>
       </c>
@@ -5942,8 +6068,9 @@
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S107" s="1"/>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2015012674</v>
       </c>
@@ -5993,8 +6120,9 @@
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S108" s="1"/>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2015012674</v>
       </c>
@@ -6044,8 +6172,9 @@
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S109" s="1"/>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2015012674</v>
       </c>
@@ -6095,8 +6224,9 @@
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S110" s="1"/>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2015012674</v>
       </c>
@@ -6146,8 +6276,9 @@
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S111" s="1"/>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2015012674</v>
       </c>
@@ -6197,8 +6328,9 @@
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S112" s="1"/>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2015012674</v>
       </c>
@@ -6248,8 +6380,9 @@
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S113" s="1"/>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2015012617</v>
       </c>
@@ -6308,8 +6441,11 @@
         <f t="shared" ref="R114" si="21">P114-Q114</f>
         <v>93.550000000000026</v>
       </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S114" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2015012617</v>
       </c>
@@ -6359,8 +6495,9 @@
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S115" s="1"/>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2015012617</v>
       </c>
@@ -6410,8 +6547,9 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S116" s="1"/>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2015012617</v>
       </c>
@@ -6461,8 +6599,9 @@
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S117" s="1"/>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2015012617</v>
       </c>
@@ -6512,8 +6651,9 @@
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S118" s="1"/>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2015012617</v>
       </c>
@@ -6563,8 +6703,9 @@
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S119" s="1"/>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2015012617</v>
       </c>
@@ -6614,8 +6755,9 @@
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S120" s="1"/>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2015012617</v>
       </c>
@@ -6665,8 +6807,9 @@
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S121" s="1"/>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2015012617</v>
       </c>
@@ -6716,8 +6859,9 @@
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S122" s="1"/>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2015012617</v>
       </c>
@@ -6767,8 +6911,9 @@
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S123" s="1"/>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2015012617</v>
       </c>
@@ -6818,8 +6963,9 @@
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S124" s="1"/>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2015012617</v>
       </c>
@@ -6869,8 +7015,9 @@
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S125" s="1"/>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2015012617</v>
       </c>
@@ -6920,8 +7067,9 @@
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S126" s="1"/>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2015012617</v>
       </c>
@@ -6971,8 +7119,9 @@
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S127" s="1"/>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2015012617</v>
       </c>
@@ -7022,8 +7171,9 @@
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S128" s="1"/>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2015012617</v>
       </c>
@@ -7073,8 +7223,9 @@
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S129" s="1"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2015012610</v>
       </c>
@@ -7133,8 +7284,11 @@
         <f t="shared" ref="R130" si="23">P130-Q130</f>
         <v>47.063492063492077</v>
       </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S130" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2015012610</v>
       </c>
@@ -7184,8 +7338,9 @@
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
       <c r="R131" s="1"/>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S131" s="1"/>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2015012610</v>
       </c>
@@ -7235,8 +7390,9 @@
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S132" s="1"/>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2015012610</v>
       </c>
@@ -7286,8 +7442,9 @@
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S133" s="1"/>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2015012610</v>
       </c>
@@ -7337,8 +7494,9 @@
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S134" s="1"/>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2015012610</v>
       </c>
@@ -7388,8 +7546,9 @@
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S135" s="1"/>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2015012610</v>
       </c>
@@ -7439,8 +7598,9 @@
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S136" s="1"/>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2015012610</v>
       </c>
@@ -7490,8 +7650,9 @@
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S137" s="1"/>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2015012610</v>
       </c>
@@ -7541,8 +7702,9 @@
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S138" s="1"/>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2015012610</v>
       </c>
@@ -7592,8 +7754,9 @@
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S139" s="1"/>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2015012610</v>
       </c>
@@ -7643,8 +7806,9 @@
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S140" s="1"/>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2015012610</v>
       </c>
@@ -7694,8 +7858,9 @@
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S141" s="1"/>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2015012610</v>
       </c>
@@ -7745,8 +7910,9 @@
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S142" s="1"/>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2015012610</v>
       </c>
@@ -7796,8 +7962,9 @@
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S143" s="1"/>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2015012610</v>
       </c>
@@ -7847,8 +8014,9 @@
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
       <c r="R144" s="1"/>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S144" s="1"/>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2015012610</v>
       </c>
@@ -7898,8 +8066,9 @@
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
       <c r="R145" s="1"/>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S145" s="1"/>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2015012618</v>
       </c>
@@ -7958,8 +8127,11 @@
         <f t="shared" ref="R146" si="29">P146-Q146</f>
         <v>43.892063492063471</v>
       </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S146" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2015012618</v>
       </c>
@@ -8009,8 +8181,9 @@
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S147" s="1"/>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2015012618</v>
       </c>
@@ -8060,8 +8233,9 @@
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S148" s="1"/>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2015012618</v>
       </c>
@@ -8111,8 +8285,9 @@
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S149" s="1"/>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2015012618</v>
       </c>
@@ -8162,8 +8337,9 @@
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S150" s="1"/>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2015012618</v>
       </c>
@@ -8213,8 +8389,9 @@
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S151" s="1"/>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2015012618</v>
       </c>
@@ -8264,8 +8441,9 @@
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S152" s="1"/>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2015012618</v>
       </c>
@@ -8315,8 +8493,9 @@
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S153" s="1"/>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2015012618</v>
       </c>
@@ -8366,8 +8545,9 @@
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S154" s="1"/>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2015012618</v>
       </c>
@@ -8417,8 +8597,9 @@
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S155" s="1"/>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2015012618</v>
       </c>
@@ -8468,8 +8649,9 @@
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S156" s="1"/>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2015012618</v>
       </c>
@@ -8519,8 +8701,9 @@
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
       <c r="R157" s="1"/>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S157" s="1"/>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2015012618</v>
       </c>
@@ -8570,8 +8753,9 @@
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S158" s="1"/>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2015012618</v>
       </c>
@@ -8621,8 +8805,9 @@
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S159" s="1"/>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2015012618</v>
       </c>
@@ -8672,8 +8857,9 @@
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S160" s="1"/>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2015012618</v>
       </c>
@@ -8723,8 +8909,9 @@
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S161" s="1"/>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2015012811</v>
       </c>
@@ -8783,8 +8970,11 @@
         <f t="shared" ref="R162" si="31">P162-Q162</f>
         <v>63.612499999999997</v>
       </c>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S162" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2015012811</v>
       </c>
@@ -8834,8 +9024,9 @@
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S163" s="1"/>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2015012811</v>
       </c>
@@ -8885,8 +9076,9 @@
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S164" s="1"/>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2015012811</v>
       </c>
@@ -8936,8 +9128,9 @@
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S165" s="1"/>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2015012811</v>
       </c>
@@ -8987,8 +9180,9 @@
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S166" s="1"/>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2015012811</v>
       </c>
@@ -9038,8 +9232,9 @@
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S167" s="1"/>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2015012811</v>
       </c>
@@ -9089,8 +9284,9 @@
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
       <c r="R168" s="1"/>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S168" s="1"/>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2015012811</v>
       </c>
@@ -9140,8 +9336,9 @@
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
       <c r="R169" s="1"/>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S169" s="1"/>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2015012811</v>
       </c>
@@ -9191,8 +9388,9 @@
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
       <c r="R170" s="1"/>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S170" s="1"/>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2015012811</v>
       </c>
@@ -9242,8 +9440,9 @@
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
       <c r="R171" s="1"/>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S171" s="1"/>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2015012811</v>
       </c>
@@ -9293,8 +9492,9 @@
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S172" s="1"/>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2015012811</v>
       </c>
@@ -9344,8 +9544,9 @@
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S173" s="1"/>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2015012811</v>
       </c>
@@ -9395,8 +9596,9 @@
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S174" s="1"/>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2015012811</v>
       </c>
@@ -9446,8 +9648,9 @@
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S175" s="1"/>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2015012811</v>
       </c>
@@ -9497,8 +9700,9 @@
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
-    </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S176" s="1"/>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2015012811</v>
       </c>
@@ -9548,8 +9752,9 @@
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
-    </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S177" s="1"/>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2012012767</v>
       </c>
@@ -9608,8 +9813,11 @@
         <f t="shared" ref="R178" si="33">P178-Q178</f>
         <v>52.485714285714288</v>
       </c>
-    </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S178" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2012012767</v>
       </c>
@@ -9659,8 +9867,9 @@
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
-    </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S179" s="1"/>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2012012767</v>
       </c>
@@ -9710,8 +9919,9 @@
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
       <c r="R180" s="1"/>
-    </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S180" s="1"/>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2012012767</v>
       </c>
@@ -9761,8 +9971,9 @@
       <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
       <c r="R181" s="1"/>
-    </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S181" s="1"/>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2012012767</v>
       </c>
@@ -9812,8 +10023,9 @@
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
-    </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S182" s="1"/>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2012012767</v>
       </c>
@@ -9863,8 +10075,9 @@
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
       <c r="R183" s="1"/>
-    </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S183" s="1"/>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2012012767</v>
       </c>
@@ -9914,8 +10127,9 @@
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
       <c r="R184" s="1"/>
-    </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S184" s="1"/>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2012012767</v>
       </c>
@@ -9965,8 +10179,9 @@
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
       <c r="R185" s="1"/>
-    </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S185" s="1"/>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>2012012767</v>
       </c>
@@ -10016,8 +10231,9 @@
       <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
       <c r="R186" s="1"/>
-    </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S186" s="1"/>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2012012767</v>
       </c>
@@ -10067,8 +10283,9 @@
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
-    </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S187" s="1"/>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2012012767</v>
       </c>
@@ -10118,8 +10335,9 @@
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
-    </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S188" s="1"/>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2012012767</v>
       </c>
@@ -10169,8 +10387,9 @@
       <c r="P189" s="1"/>
       <c r="Q189" s="1"/>
       <c r="R189" s="1"/>
-    </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S189" s="1"/>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2012012767</v>
       </c>
@@ -10220,8 +10439,9 @@
       <c r="P190" s="1"/>
       <c r="Q190" s="1"/>
       <c r="R190" s="1"/>
-    </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S190" s="1"/>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2012012767</v>
       </c>
@@ -10271,8 +10491,9 @@
       <c r="P191" s="1"/>
       <c r="Q191" s="1"/>
       <c r="R191" s="1"/>
-    </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S191" s="1"/>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>2012012767</v>
       </c>
@@ -10322,8 +10543,9 @@
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
-    </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S192" s="1"/>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2012012767</v>
       </c>
@@ -10373,8 +10595,9 @@
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
       <c r="R193" s="1"/>
-    </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S193" s="1"/>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2014012759</v>
       </c>
@@ -10433,8 +10656,11 @@
         <f t="shared" ref="R194" si="35">P194-Q194</f>
         <v>22.1111111111111</v>
       </c>
-    </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S194" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2014012759</v>
       </c>
@@ -10484,8 +10710,9 @@
       <c r="P195" s="1"/>
       <c r="Q195" s="1"/>
       <c r="R195" s="1"/>
-    </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S195" s="1"/>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2014012759</v>
       </c>
@@ -10535,8 +10762,9 @@
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
-    </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S196" s="1"/>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2014012759</v>
       </c>
@@ -10586,8 +10814,9 @@
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
       <c r="R197" s="1"/>
-    </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S197" s="1"/>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2014012759</v>
       </c>
@@ -10637,8 +10866,9 @@
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
       <c r="R198" s="1"/>
-    </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S198" s="1"/>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2014012759</v>
       </c>
@@ -10688,8 +10918,9 @@
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
       <c r="R199" s="1"/>
-    </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S199" s="1"/>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>2014012759</v>
       </c>
@@ -10739,8 +10970,9 @@
       <c r="P200" s="1"/>
       <c r="Q200" s="1"/>
       <c r="R200" s="1"/>
-    </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S200" s="1"/>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2014012759</v>
       </c>
@@ -10790,8 +11022,9 @@
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
       <c r="R201" s="1"/>
-    </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S201" s="1"/>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2014012759</v>
       </c>
@@ -10841,8 +11074,9 @@
       <c r="P202" s="1"/>
       <c r="Q202" s="1"/>
       <c r="R202" s="1"/>
-    </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S202" s="1"/>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2014012759</v>
       </c>
@@ -10892,8 +11126,9 @@
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
       <c r="R203" s="1"/>
-    </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S203" s="1"/>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2014012759</v>
       </c>
@@ -10943,8 +11178,9 @@
       <c r="P204" s="1"/>
       <c r="Q204" s="1"/>
       <c r="R204" s="1"/>
-    </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S204" s="1"/>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2014012759</v>
       </c>
@@ -10994,8 +11230,9 @@
       <c r="P205" s="1"/>
       <c r="Q205" s="1"/>
       <c r="R205" s="1"/>
-    </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S205" s="1"/>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2014012759</v>
       </c>
@@ -11045,8 +11282,9 @@
       <c r="P206" s="1"/>
       <c r="Q206" s="1"/>
       <c r="R206" s="1"/>
-    </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S206" s="1"/>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2014012759</v>
       </c>
@@ -11096,8 +11334,9 @@
       <c r="P207" s="1"/>
       <c r="Q207" s="1"/>
       <c r="R207" s="1"/>
-    </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S207" s="1"/>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2014012759</v>
       </c>
@@ -11147,8 +11386,9 @@
       <c r="P208" s="1"/>
       <c r="Q208" s="1"/>
       <c r="R208" s="1"/>
-    </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S208" s="1"/>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2014012759</v>
       </c>
@@ -11198,8 +11438,9 @@
       <c r="P209" s="1"/>
       <c r="Q209" s="1"/>
       <c r="R209" s="1"/>
-    </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S209" s="1"/>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>2015012609</v>
       </c>
@@ -11258,8 +11499,11 @@
         <f t="shared" ref="R210" si="41">P210-Q210</f>
         <v>8.2634920634920235</v>
       </c>
-    </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S210" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2015012609</v>
       </c>
@@ -11309,8 +11553,9 @@
       <c r="P211" s="1"/>
       <c r="Q211" s="1"/>
       <c r="R211" s="1"/>
-    </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S211" s="1"/>
+    </row>
+    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2015012609</v>
       </c>
@@ -11360,8 +11605,9 @@
       <c r="P212" s="1"/>
       <c r="Q212" s="1"/>
       <c r="R212" s="1"/>
-    </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S212" s="1"/>
+    </row>
+    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2015012609</v>
       </c>
@@ -11411,8 +11657,9 @@
       <c r="P213" s="1"/>
       <c r="Q213" s="1"/>
       <c r="R213" s="1"/>
-    </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S213" s="1"/>
+    </row>
+    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2015012609</v>
       </c>
@@ -11462,8 +11709,9 @@
       <c r="P214" s="1"/>
       <c r="Q214" s="1"/>
       <c r="R214" s="1"/>
-    </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S214" s="1"/>
+    </row>
+    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2015012609</v>
       </c>
@@ -11513,8 +11761,9 @@
       <c r="P215" s="1"/>
       <c r="Q215" s="1"/>
       <c r="R215" s="1"/>
-    </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S215" s="1"/>
+    </row>
+    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2015012609</v>
       </c>
@@ -11564,8 +11813,9 @@
       <c r="P216" s="1"/>
       <c r="Q216" s="1"/>
       <c r="R216" s="1"/>
-    </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S216" s="1"/>
+    </row>
+    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>2015012609</v>
       </c>
@@ -11615,8 +11865,9 @@
       <c r="P217" s="1"/>
       <c r="Q217" s="1"/>
       <c r="R217" s="1"/>
-    </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S217" s="1"/>
+    </row>
+    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2015012609</v>
       </c>
@@ -11666,8 +11917,9 @@
       <c r="P218" s="1"/>
       <c r="Q218" s="1"/>
       <c r="R218" s="1"/>
-    </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S218" s="1"/>
+    </row>
+    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2015012609</v>
       </c>
@@ -11717,8 +11969,9 @@
       <c r="P219" s="1"/>
       <c r="Q219" s="1"/>
       <c r="R219" s="1"/>
-    </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S219" s="1"/>
+    </row>
+    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2015012609</v>
       </c>
@@ -11768,8 +12021,9 @@
       <c r="P220" s="1"/>
       <c r="Q220" s="1"/>
       <c r="R220" s="1"/>
-    </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S220" s="1"/>
+    </row>
+    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2015012609</v>
       </c>
@@ -11819,8 +12073,9 @@
       <c r="P221" s="1"/>
       <c r="Q221" s="1"/>
       <c r="R221" s="1"/>
-    </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S221" s="1"/>
+    </row>
+    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2015012609</v>
       </c>
@@ -11870,8 +12125,9 @@
       <c r="P222" s="1"/>
       <c r="Q222" s="1"/>
       <c r="R222" s="1"/>
-    </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S222" s="1"/>
+    </row>
+    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2015012609</v>
       </c>
@@ -11921,8 +12177,9 @@
       <c r="P223" s="1"/>
       <c r="Q223" s="1"/>
       <c r="R223" s="1"/>
-    </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S223" s="1"/>
+    </row>
+    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2015012609</v>
       </c>
@@ -11972,8 +12229,9 @@
       <c r="P224" s="1"/>
       <c r="Q224" s="1"/>
       <c r="R224" s="1"/>
-    </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S224" s="1"/>
+    </row>
+    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2015012609</v>
       </c>
@@ -12023,8 +12281,9 @@
       <c r="P225" s="1"/>
       <c r="Q225" s="1"/>
       <c r="R225" s="1"/>
-    </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S225" s="1"/>
+    </row>
+    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>2015012642</v>
       </c>
@@ -12083,8 +12342,11 @@
         <f t="shared" ref="R226" si="43">P226-Q226</f>
         <v>102.87499999999999</v>
       </c>
-    </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S226" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2015012642</v>
       </c>
@@ -12134,8 +12396,9 @@
       <c r="P227" s="1"/>
       <c r="Q227" s="1"/>
       <c r="R227" s="1"/>
-    </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S227" s="1"/>
+    </row>
+    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>2015012642</v>
       </c>
@@ -12185,8 +12448,9 @@
       <c r="P228" s="1"/>
       <c r="Q228" s="1"/>
       <c r="R228" s="1"/>
-    </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S228" s="1"/>
+    </row>
+    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>2015012642</v>
       </c>
@@ -12236,8 +12500,9 @@
       <c r="P229" s="1"/>
       <c r="Q229" s="1"/>
       <c r="R229" s="1"/>
-    </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S229" s="1"/>
+    </row>
+    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>2015012642</v>
       </c>
@@ -12287,8 +12552,9 @@
       <c r="P230" s="1"/>
       <c r="Q230" s="1"/>
       <c r="R230" s="1"/>
-    </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S230" s="1"/>
+    </row>
+    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2015012642</v>
       </c>
@@ -12338,8 +12604,9 @@
       <c r="P231" s="1"/>
       <c r="Q231" s="1"/>
       <c r="R231" s="1"/>
-    </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S231" s="1"/>
+    </row>
+    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>2015012642</v>
       </c>
@@ -12389,8 +12656,9 @@
       <c r="P232" s="1"/>
       <c r="Q232" s="1"/>
       <c r="R232" s="1"/>
-    </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S232" s="1"/>
+    </row>
+    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2015012642</v>
       </c>
@@ -12440,8 +12708,9 @@
       <c r="P233" s="1"/>
       <c r="Q233" s="1"/>
       <c r="R233" s="1"/>
-    </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S233" s="1"/>
+    </row>
+    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2015012642</v>
       </c>
@@ -12491,8 +12760,9 @@
       <c r="P234" s="1"/>
       <c r="Q234" s="1"/>
       <c r="R234" s="1"/>
-    </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S234" s="1"/>
+    </row>
+    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2015012642</v>
       </c>
@@ -12542,8 +12812,9 @@
       <c r="P235" s="1"/>
       <c r="Q235" s="1"/>
       <c r="R235" s="1"/>
-    </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S235" s="1"/>
+    </row>
+    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2015012642</v>
       </c>
@@ -12593,8 +12864,9 @@
       <c r="P236" s="1"/>
       <c r="Q236" s="1"/>
       <c r="R236" s="1"/>
-    </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S236" s="1"/>
+    </row>
+    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2015012642</v>
       </c>
@@ -12644,8 +12916,9 @@
       <c r="P237" s="1"/>
       <c r="Q237" s="1"/>
       <c r="R237" s="1"/>
-    </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S237" s="1"/>
+    </row>
+    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>2015012642</v>
       </c>
@@ -12695,8 +12968,9 @@
       <c r="P238" s="1"/>
       <c r="Q238" s="1"/>
       <c r="R238" s="1"/>
-    </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S238" s="1"/>
+    </row>
+    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>2015012642</v>
       </c>
@@ -12746,8 +13020,9 @@
       <c r="P239" s="1"/>
       <c r="Q239" s="1"/>
       <c r="R239" s="1"/>
-    </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S239" s="1"/>
+    </row>
+    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>2015012642</v>
       </c>
@@ -12797,8 +13072,9 @@
       <c r="P240" s="1"/>
       <c r="Q240" s="1"/>
       <c r="R240" s="1"/>
-    </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S240" s="1"/>
+    </row>
+    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>2015012642</v>
       </c>
@@ -12848,8 +13124,9 @@
       <c r="P241" s="1"/>
       <c r="Q241" s="1"/>
       <c r="R241" s="1"/>
-    </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S241" s="1"/>
+    </row>
+    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>2014012772</v>
       </c>
@@ -12908,8 +13185,11 @@
         <f t="shared" ref="R242" si="45">P242-Q242</f>
         <v>38.137500000000003</v>
       </c>
-    </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S242" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>2014012772</v>
       </c>
@@ -12959,8 +13239,9 @@
       <c r="P243" s="1"/>
       <c r="Q243" s="1"/>
       <c r="R243" s="1"/>
-    </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S243" s="1"/>
+    </row>
+    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>2014012772</v>
       </c>
@@ -13010,8 +13291,9 @@
       <c r="P244" s="1"/>
       <c r="Q244" s="1"/>
       <c r="R244" s="1"/>
-    </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S244" s="1"/>
+    </row>
+    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2014012772</v>
       </c>
@@ -13061,8 +13343,9 @@
       <c r="P245" s="1"/>
       <c r="Q245" s="1"/>
       <c r="R245" s="1"/>
-    </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S245" s="1"/>
+    </row>
+    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>2014012772</v>
       </c>
@@ -13112,8 +13395,9 @@
       <c r="P246" s="1"/>
       <c r="Q246" s="1"/>
       <c r="R246" s="1"/>
-    </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S246" s="1"/>
+    </row>
+    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>2014012772</v>
       </c>
@@ -13163,8 +13447,9 @@
       <c r="P247" s="1"/>
       <c r="Q247" s="1"/>
       <c r="R247" s="1"/>
-    </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S247" s="1"/>
+    </row>
+    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>2014012772</v>
       </c>
@@ -13214,8 +13499,9 @@
       <c r="P248" s="1"/>
       <c r="Q248" s="1"/>
       <c r="R248" s="1"/>
-    </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S248" s="1"/>
+    </row>
+    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>2014012772</v>
       </c>
@@ -13265,8 +13551,9 @@
       <c r="P249" s="1"/>
       <c r="Q249" s="1"/>
       <c r="R249" s="1"/>
-    </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S249" s="1"/>
+    </row>
+    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>2014012772</v>
       </c>
@@ -13316,8 +13603,9 @@
       <c r="P250" s="1"/>
       <c r="Q250" s="1"/>
       <c r="R250" s="1"/>
-    </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S250" s="1"/>
+    </row>
+    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>2014012772</v>
       </c>
@@ -13367,8 +13655,9 @@
       <c r="P251" s="1"/>
       <c r="Q251" s="1"/>
       <c r="R251" s="1"/>
-    </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S251" s="1"/>
+    </row>
+    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>2014012772</v>
       </c>
@@ -13418,8 +13707,9 @@
       <c r="P252" s="1"/>
       <c r="Q252" s="1"/>
       <c r="R252" s="1"/>
-    </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S252" s="1"/>
+    </row>
+    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>2014012772</v>
       </c>
@@ -13469,8 +13759,9 @@
       <c r="P253" s="1"/>
       <c r="Q253" s="1"/>
       <c r="R253" s="1"/>
-    </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S253" s="1"/>
+    </row>
+    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>2014012772</v>
       </c>
@@ -13520,8 +13811,9 @@
       <c r="P254" s="1"/>
       <c r="Q254" s="1"/>
       <c r="R254" s="1"/>
-    </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S254" s="1"/>
+    </row>
+    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>2014012772</v>
       </c>
@@ -13571,8 +13863,9 @@
       <c r="P255" s="1"/>
       <c r="Q255" s="1"/>
       <c r="R255" s="1"/>
-    </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S255" s="1"/>
+    </row>
+    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>2014012772</v>
       </c>
@@ -13622,8 +13915,9 @@
       <c r="P256" s="1"/>
       <c r="Q256" s="1"/>
       <c r="R256" s="1"/>
-    </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S256" s="1"/>
+    </row>
+    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>2014012772</v>
       </c>
@@ -13673,8 +13967,9 @@
       <c r="P257" s="1"/>
       <c r="Q257" s="1"/>
       <c r="R257" s="1"/>
-    </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S257" s="1"/>
+    </row>
+    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>2015012649</v>
       </c>
@@ -13733,8 +14028,11 @@
         <f t="shared" ref="R258" si="47">P258-Q258</f>
         <v>16.322222222222223</v>
       </c>
-    </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S258" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>2015012649</v>
       </c>
@@ -13784,8 +14082,9 @@
       <c r="P259" s="1"/>
       <c r="Q259" s="1"/>
       <c r="R259" s="1"/>
-    </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S259" s="1"/>
+    </row>
+    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>2015012649</v>
       </c>
@@ -13835,8 +14134,9 @@
       <c r="P260" s="1"/>
       <c r="Q260" s="1"/>
       <c r="R260" s="1"/>
-    </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S260" s="1"/>
+    </row>
+    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>2015012649</v>
       </c>
@@ -13886,8 +14186,9 @@
       <c r="P261" s="1"/>
       <c r="Q261" s="1"/>
       <c r="R261" s="1"/>
-    </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S261" s="1"/>
+    </row>
+    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>2015012649</v>
       </c>
@@ -13937,8 +14238,9 @@
       <c r="P262" s="1"/>
       <c r="Q262" s="1"/>
       <c r="R262" s="1"/>
-    </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S262" s="1"/>
+    </row>
+    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>2015012649</v>
       </c>
@@ -13988,8 +14290,9 @@
       <c r="P263" s="1"/>
       <c r="Q263" s="1"/>
       <c r="R263" s="1"/>
-    </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S263" s="1"/>
+    </row>
+    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>2015012649</v>
       </c>
@@ -14039,8 +14342,9 @@
       <c r="P264" s="1"/>
       <c r="Q264" s="1"/>
       <c r="R264" s="1"/>
-    </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S264" s="1"/>
+    </row>
+    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>2015012649</v>
       </c>
@@ -14090,8 +14394,9 @@
       <c r="P265" s="1"/>
       <c r="Q265" s="1"/>
       <c r="R265" s="1"/>
-    </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S265" s="1"/>
+    </row>
+    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>2015012649</v>
       </c>
@@ -14141,8 +14446,9 @@
       <c r="P266" s="1"/>
       <c r="Q266" s="1"/>
       <c r="R266" s="1"/>
-    </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S266" s="1"/>
+    </row>
+    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>2015012649</v>
       </c>
@@ -14192,8 +14498,9 @@
       <c r="P267" s="1"/>
       <c r="Q267" s="1"/>
       <c r="R267" s="1"/>
-    </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S267" s="1"/>
+    </row>
+    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>2015012649</v>
       </c>
@@ -14243,8 +14550,9 @@
       <c r="P268" s="1"/>
       <c r="Q268" s="1"/>
       <c r="R268" s="1"/>
-    </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S268" s="1"/>
+    </row>
+    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>2015012649</v>
       </c>
@@ -14294,8 +14602,9 @@
       <c r="P269" s="1"/>
       <c r="Q269" s="1"/>
       <c r="R269" s="1"/>
-    </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S269" s="1"/>
+    </row>
+    <row r="270" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>2015012649</v>
       </c>
@@ -14345,8 +14654,9 @@
       <c r="P270" s="1"/>
       <c r="Q270" s="1"/>
       <c r="R270" s="1"/>
-    </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S270" s="1"/>
+    </row>
+    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>2015012649</v>
       </c>
@@ -14396,8 +14706,9 @@
       <c r="P271" s="1"/>
       <c r="Q271" s="1"/>
       <c r="R271" s="1"/>
-    </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S271" s="1"/>
+    </row>
+    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>2015012649</v>
       </c>
@@ -14447,8 +14758,9 @@
       <c r="P272" s="1"/>
       <c r="Q272" s="1"/>
       <c r="R272" s="1"/>
-    </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S272" s="1"/>
+    </row>
+    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>2015012649</v>
       </c>
@@ -14498,8 +14810,9 @@
       <c r="P273" s="1"/>
       <c r="Q273" s="1"/>
       <c r="R273" s="1"/>
-    </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S273" s="1"/>
+    </row>
+    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>2015012620</v>
       </c>
@@ -14558,8 +14871,11 @@
         <f t="shared" ref="R274" si="53">P274-Q274</f>
         <v>101.80000000000004</v>
       </c>
-    </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S274" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>2015012620</v>
       </c>
@@ -14609,8 +14925,9 @@
       <c r="P275" s="1"/>
       <c r="Q275" s="1"/>
       <c r="R275" s="1"/>
-    </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S275" s="1"/>
+    </row>
+    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>2015012620</v>
       </c>
@@ -14660,8 +14977,9 @@
       <c r="P276" s="1"/>
       <c r="Q276" s="1"/>
       <c r="R276" s="1"/>
-    </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S276" s="1"/>
+    </row>
+    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>2015012620</v>
       </c>
@@ -14711,8 +15029,9 @@
       <c r="P277" s="1"/>
       <c r="Q277" s="1"/>
       <c r="R277" s="1"/>
-    </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S277" s="1"/>
+    </row>
+    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>2015012620</v>
       </c>
@@ -14762,8 +15081,9 @@
       <c r="P278" s="1"/>
       <c r="Q278" s="1"/>
       <c r="R278" s="1"/>
-    </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S278" s="1"/>
+    </row>
+    <row r="279" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>2015012620</v>
       </c>
@@ -14813,8 +15133,9 @@
       <c r="P279" s="1"/>
       <c r="Q279" s="1"/>
       <c r="R279" s="1"/>
-    </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S279" s="1"/>
+    </row>
+    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>2015012620</v>
       </c>
@@ -14864,8 +15185,9 @@
       <c r="P280" s="1"/>
       <c r="Q280" s="1"/>
       <c r="R280" s="1"/>
-    </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S280" s="1"/>
+    </row>
+    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>2015012620</v>
       </c>
@@ -14915,8 +15237,9 @@
       <c r="P281" s="1"/>
       <c r="Q281" s="1"/>
       <c r="R281" s="1"/>
-    </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S281" s="1"/>
+    </row>
+    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>2015012620</v>
       </c>
@@ -14966,8 +15289,9 @@
       <c r="P282" s="1"/>
       <c r="Q282" s="1"/>
       <c r="R282" s="1"/>
-    </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S282" s="1"/>
+    </row>
+    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>2015012620</v>
       </c>
@@ -15017,8 +15341,9 @@
       <c r="P283" s="1"/>
       <c r="Q283" s="1"/>
       <c r="R283" s="1"/>
-    </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S283" s="1"/>
+    </row>
+    <row r="284" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>2015012620</v>
       </c>
@@ -15068,8 +15393,9 @@
       <c r="P284" s="1"/>
       <c r="Q284" s="1"/>
       <c r="R284" s="1"/>
-    </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S284" s="1"/>
+    </row>
+    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>2015012620</v>
       </c>
@@ -15119,8 +15445,9 @@
       <c r="P285" s="1"/>
       <c r="Q285" s="1"/>
       <c r="R285" s="1"/>
-    </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S285" s="1"/>
+    </row>
+    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>2015012620</v>
       </c>
@@ -15170,8 +15497,9 @@
       <c r="P286" s="1"/>
       <c r="Q286" s="1"/>
       <c r="R286" s="1"/>
-    </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S286" s="1"/>
+    </row>
+    <row r="287" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>2015012620</v>
       </c>
@@ -15221,8 +15549,9 @@
       <c r="P287" s="1"/>
       <c r="Q287" s="1"/>
       <c r="R287" s="1"/>
-    </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S287" s="1"/>
+    </row>
+    <row r="288" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>2015012620</v>
       </c>
@@ -15272,8 +15601,9 @@
       <c r="P288" s="1"/>
       <c r="Q288" s="1"/>
       <c r="R288" s="1"/>
-    </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S288" s="1"/>
+    </row>
+    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>2015012620</v>
       </c>
@@ -15323,8 +15653,9 @@
       <c r="P289" s="1"/>
       <c r="Q289" s="1"/>
       <c r="R289" s="1"/>
-    </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S289" s="1"/>
+    </row>
+    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>2015012623</v>
       </c>
@@ -15383,8 +15714,11 @@
         <f t="shared" ref="R290" si="55">P290-Q290</f>
         <v>41.473015873015882</v>
       </c>
-    </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S290" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>2015012623</v>
       </c>
@@ -15434,8 +15768,9 @@
       <c r="P291" s="1"/>
       <c r="Q291" s="1"/>
       <c r="R291" s="1"/>
-    </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S291" s="1"/>
+    </row>
+    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2015012623</v>
       </c>
@@ -15485,8 +15820,9 @@
       <c r="P292" s="1"/>
       <c r="Q292" s="1"/>
       <c r="R292" s="1"/>
-    </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S292" s="1"/>
+    </row>
+    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>2015012623</v>
       </c>
@@ -15536,8 +15872,9 @@
       <c r="P293" s="1"/>
       <c r="Q293" s="1"/>
       <c r="R293" s="1"/>
-    </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S293" s="1"/>
+    </row>
+    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>2015012623</v>
       </c>
@@ -15587,8 +15924,9 @@
       <c r="P294" s="1"/>
       <c r="Q294" s="1"/>
       <c r="R294" s="1"/>
-    </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S294" s="1"/>
+    </row>
+    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>2015012623</v>
       </c>
@@ -15638,8 +15976,9 @@
       <c r="P295" s="1"/>
       <c r="Q295" s="1"/>
       <c r="R295" s="1"/>
-    </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S295" s="1"/>
+    </row>
+    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>2015012623</v>
       </c>
@@ -15689,8 +16028,9 @@
       <c r="P296" s="1"/>
       <c r="Q296" s="1"/>
       <c r="R296" s="1"/>
-    </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S296" s="1"/>
+    </row>
+    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>2015012623</v>
       </c>
@@ -15740,8 +16080,9 @@
       <c r="P297" s="1"/>
       <c r="Q297" s="1"/>
       <c r="R297" s="1"/>
-    </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S297" s="1"/>
+    </row>
+    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>2015012623</v>
       </c>
@@ -15791,8 +16132,9 @@
       <c r="P298" s="1"/>
       <c r="Q298" s="1"/>
       <c r="R298" s="1"/>
-    </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S298" s="1"/>
+    </row>
+    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>2015012623</v>
       </c>
@@ -15842,8 +16184,9 @@
       <c r="P299" s="1"/>
       <c r="Q299" s="1"/>
       <c r="R299" s="1"/>
-    </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S299" s="1"/>
+    </row>
+    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>2015012623</v>
       </c>
@@ -15893,8 +16236,9 @@
       <c r="P300" s="1"/>
       <c r="Q300" s="1"/>
       <c r="R300" s="1"/>
-    </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S300" s="1"/>
+    </row>
+    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>2015012623</v>
       </c>
@@ -15944,8 +16288,9 @@
       <c r="P301" s="1"/>
       <c r="Q301" s="1"/>
       <c r="R301" s="1"/>
-    </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S301" s="1"/>
+    </row>
+    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>2015012623</v>
       </c>
@@ -15995,8 +16340,9 @@
       <c r="P302" s="1"/>
       <c r="Q302" s="1"/>
       <c r="R302" s="1"/>
-    </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S302" s="1"/>
+    </row>
+    <row r="303" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>2015012623</v>
       </c>
@@ -16046,8 +16392,9 @@
       <c r="P303" s="1"/>
       <c r="Q303" s="1"/>
       <c r="R303" s="1"/>
-    </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S303" s="1"/>
+    </row>
+    <row r="304" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>2015012623</v>
       </c>
@@ -16097,8 +16444,9 @@
       <c r="P304" s="1"/>
       <c r="Q304" s="1"/>
       <c r="R304" s="1"/>
-    </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S304" s="1"/>
+    </row>
+    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>2015012623</v>
       </c>
@@ -16148,8 +16496,9 @@
       <c r="P305" s="1"/>
       <c r="Q305" s="1"/>
       <c r="R305" s="1"/>
-    </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S305" s="1"/>
+    </row>
+    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>2015012622</v>
       </c>
@@ -16208,8 +16557,11 @@
         <f t="shared" ref="R306" si="57">P306-Q306</f>
         <v>84.923333333333346</v>
       </c>
-    </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S306" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2015012622</v>
       </c>
@@ -16259,8 +16611,9 @@
       <c r="P307" s="1"/>
       <c r="Q307" s="1"/>
       <c r="R307" s="1"/>
-    </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S307" s="1"/>
+    </row>
+    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>2015012622</v>
       </c>
@@ -16310,8 +16663,9 @@
       <c r="P308" s="1"/>
       <c r="Q308" s="1"/>
       <c r="R308" s="1"/>
-    </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S308" s="1"/>
+    </row>
+    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>2015012622</v>
       </c>
@@ -16361,8 +16715,9 @@
       <c r="P309" s="1"/>
       <c r="Q309" s="1"/>
       <c r="R309" s="1"/>
-    </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S309" s="1"/>
+    </row>
+    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>2015012622</v>
       </c>
@@ -16412,8 +16767,9 @@
       <c r="P310" s="1"/>
       <c r="Q310" s="1"/>
       <c r="R310" s="1"/>
-    </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S310" s="1"/>
+    </row>
+    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>2015012622</v>
       </c>
@@ -16463,8 +16819,9 @@
       <c r="P311" s="1"/>
       <c r="Q311" s="1"/>
       <c r="R311" s="1"/>
-    </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S311" s="1"/>
+    </row>
+    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>2015012622</v>
       </c>
@@ -16514,8 +16871,9 @@
       <c r="P312" s="1"/>
       <c r="Q312" s="1"/>
       <c r="R312" s="1"/>
-    </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S312" s="1"/>
+    </row>
+    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>2015012622</v>
       </c>
@@ -16565,8 +16923,9 @@
       <c r="P313" s="1"/>
       <c r="Q313" s="1"/>
       <c r="R313" s="1"/>
-    </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S313" s="1"/>
+    </row>
+    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>2015012622</v>
       </c>
@@ -16616,8 +16975,9 @@
       <c r="P314" s="1"/>
       <c r="Q314" s="1"/>
       <c r="R314" s="1"/>
-    </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S314" s="1"/>
+    </row>
+    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>2015012622</v>
       </c>
@@ -16667,8 +17027,9 @@
       <c r="P315" s="1"/>
       <c r="Q315" s="1"/>
       <c r="R315" s="1"/>
-    </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S315" s="1"/>
+    </row>
+    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>2015012622</v>
       </c>
@@ -16718,8 +17079,9 @@
       <c r="P316" s="1"/>
       <c r="Q316" s="1"/>
       <c r="R316" s="1"/>
-    </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S316" s="1"/>
+    </row>
+    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>2015012622</v>
       </c>
@@ -16769,8 +17131,9 @@
       <c r="P317" s="1"/>
       <c r="Q317" s="1"/>
       <c r="R317" s="1"/>
-    </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S317" s="1"/>
+    </row>
+    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>2015012622</v>
       </c>
@@ -16820,8 +17183,9 @@
       <c r="P318" s="1"/>
       <c r="Q318" s="1"/>
       <c r="R318" s="1"/>
-    </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S318" s="1"/>
+    </row>
+    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>2015012622</v>
       </c>
@@ -16871,8 +17235,9 @@
       <c r="P319" s="1"/>
       <c r="Q319" s="1"/>
       <c r="R319" s="1"/>
-    </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S319" s="1"/>
+    </row>
+    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>2015012622</v>
       </c>
@@ -16922,8 +17287,9 @@
       <c r="P320" s="1"/>
       <c r="Q320" s="1"/>
       <c r="R320" s="1"/>
-    </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S320" s="1"/>
+    </row>
+    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>2015012622</v>
       </c>
@@ -16973,8 +17339,9 @@
       <c r="P321" s="1"/>
       <c r="Q321" s="1"/>
       <c r="R321" s="1"/>
-    </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S321" s="1"/>
+    </row>
+    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>2015012625</v>
       </c>
@@ -17033,8 +17400,11 @@
         <f t="shared" ref="R322" si="59">P322-Q322</f>
         <v>96.087499999999977</v>
       </c>
-    </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S322" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>2015012625</v>
       </c>
@@ -17084,8 +17454,9 @@
       <c r="P323" s="1"/>
       <c r="Q323" s="1"/>
       <c r="R323" s="1"/>
-    </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S323" s="1"/>
+    </row>
+    <row r="324" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>2015012625</v>
       </c>
@@ -17135,8 +17506,9 @@
       <c r="P324" s="1"/>
       <c r="Q324" s="1"/>
       <c r="R324" s="1"/>
-    </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S324" s="1"/>
+    </row>
+    <row r="325" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>2015012625</v>
       </c>
@@ -17186,8 +17558,9 @@
       <c r="P325" s="1"/>
       <c r="Q325" s="1"/>
       <c r="R325" s="1"/>
-    </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S325" s="1"/>
+    </row>
+    <row r="326" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>2015012625</v>
       </c>
@@ -17237,8 +17610,9 @@
       <c r="P326" s="1"/>
       <c r="Q326" s="1"/>
       <c r="R326" s="1"/>
-    </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S326" s="1"/>
+    </row>
+    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>2015012625</v>
       </c>
@@ -17288,8 +17662,9 @@
       <c r="P327" s="1"/>
       <c r="Q327" s="1"/>
       <c r="R327" s="1"/>
-    </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S327" s="1"/>
+    </row>
+    <row r="328" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>2015012625</v>
       </c>
@@ -17339,8 +17714,9 @@
       <c r="P328" s="1"/>
       <c r="Q328" s="1"/>
       <c r="R328" s="1"/>
-    </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S328" s="1"/>
+    </row>
+    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>2015012625</v>
       </c>
@@ -17390,8 +17766,9 @@
       <c r="P329" s="1"/>
       <c r="Q329" s="1"/>
       <c r="R329" s="1"/>
-    </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S329" s="1"/>
+    </row>
+    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>2015012625</v>
       </c>
@@ -17441,8 +17818,9 @@
       <c r="P330" s="1"/>
       <c r="Q330" s="1"/>
       <c r="R330" s="1"/>
-    </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S330" s="1"/>
+    </row>
+    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>2015012625</v>
       </c>
@@ -17492,8 +17870,9 @@
       <c r="P331" s="1"/>
       <c r="Q331" s="1"/>
       <c r="R331" s="1"/>
-    </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S331" s="1"/>
+    </row>
+    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>2015012625</v>
       </c>
@@ -17543,8 +17922,9 @@
       <c r="P332" s="1"/>
       <c r="Q332" s="1"/>
       <c r="R332" s="1"/>
-    </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S332" s="1"/>
+    </row>
+    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>2015012625</v>
       </c>
@@ -17594,8 +17974,9 @@
       <c r="P333" s="1"/>
       <c r="Q333" s="1"/>
       <c r="R333" s="1"/>
-    </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S333" s="1"/>
+    </row>
+    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>2015012625</v>
       </c>
@@ -17645,8 +18026,9 @@
       <c r="P334" s="1"/>
       <c r="Q334" s="1"/>
       <c r="R334" s="1"/>
-    </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S334" s="1"/>
+    </row>
+    <row r="335" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>2015012625</v>
       </c>
@@ -17696,8 +18078,9 @@
       <c r="P335" s="1"/>
       <c r="Q335" s="1"/>
       <c r="R335" s="1"/>
-    </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S335" s="1"/>
+    </row>
+    <row r="336" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>2015012625</v>
       </c>
@@ -17747,8 +18130,9 @@
       <c r="P336" s="1"/>
       <c r="Q336" s="1"/>
       <c r="R336" s="1"/>
-    </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S336" s="1"/>
+    </row>
+    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>2015012625</v>
       </c>
@@ -17798,8 +18182,9 @@
       <c r="P337" s="1"/>
       <c r="Q337" s="1"/>
       <c r="R337" s="1"/>
-    </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S337" s="1"/>
+    </row>
+    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>2015012624</v>
       </c>
@@ -17858,8 +18243,11 @@
         <f t="shared" ref="R338" si="65">P338-Q338</f>
         <v>114.28412698412697</v>
       </c>
-    </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S338" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>2015012624</v>
       </c>
@@ -17909,8 +18297,9 @@
       <c r="P339" s="1"/>
       <c r="Q339" s="1"/>
       <c r="R339" s="1"/>
-    </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S339" s="1"/>
+    </row>
+    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>2015012624</v>
       </c>
@@ -17960,8 +18349,9 @@
       <c r="P340" s="1"/>
       <c r="Q340" s="1"/>
       <c r="R340" s="1"/>
-    </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S340" s="1"/>
+    </row>
+    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>2015012624</v>
       </c>
@@ -18011,8 +18401,9 @@
       <c r="P341" s="1"/>
       <c r="Q341" s="1"/>
       <c r="R341" s="1"/>
-    </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S341" s="1"/>
+    </row>
+    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>2015012624</v>
       </c>
@@ -18062,8 +18453,9 @@
       <c r="P342" s="1"/>
       <c r="Q342" s="1"/>
       <c r="R342" s="1"/>
-    </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S342" s="1"/>
+    </row>
+    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>2015012624</v>
       </c>
@@ -18113,8 +18505,9 @@
       <c r="P343" s="1"/>
       <c r="Q343" s="1"/>
       <c r="R343" s="1"/>
-    </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S343" s="1"/>
+    </row>
+    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>2015012624</v>
       </c>
@@ -18164,8 +18557,9 @@
       <c r="P344" s="1"/>
       <c r="Q344" s="1"/>
       <c r="R344" s="1"/>
-    </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S344" s="1"/>
+    </row>
+    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>2015012624</v>
       </c>
@@ -18215,8 +18609,9 @@
       <c r="P345" s="1"/>
       <c r="Q345" s="1"/>
       <c r="R345" s="1"/>
-    </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S345" s="1"/>
+    </row>
+    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>2015012624</v>
       </c>
@@ -18266,8 +18661,9 @@
       <c r="P346" s="1"/>
       <c r="Q346" s="1"/>
       <c r="R346" s="1"/>
-    </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S346" s="1"/>
+    </row>
+    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>2015012624</v>
       </c>
@@ -18317,8 +18713,9 @@
       <c r="P347" s="1"/>
       <c r="Q347" s="1"/>
       <c r="R347" s="1"/>
-    </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S347" s="1"/>
+    </row>
+    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>2015012624</v>
       </c>
@@ -18368,8 +18765,9 @@
       <c r="P348" s="1"/>
       <c r="Q348" s="1"/>
       <c r="R348" s="1"/>
-    </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S348" s="1"/>
+    </row>
+    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>2015012624</v>
       </c>
@@ -18419,8 +18817,9 @@
       <c r="P349" s="1"/>
       <c r="Q349" s="1"/>
       <c r="R349" s="1"/>
-    </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S349" s="1"/>
+    </row>
+    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>2015012624</v>
       </c>
@@ -18470,8 +18869,9 @@
       <c r="P350" s="1"/>
       <c r="Q350" s="1"/>
       <c r="R350" s="1"/>
-    </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S350" s="1"/>
+    </row>
+    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>2015012624</v>
       </c>
@@ -18521,8 +18921,9 @@
       <c r="P351" s="1"/>
       <c r="Q351" s="1"/>
       <c r="R351" s="1"/>
-    </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S351" s="1"/>
+    </row>
+    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>2015012624</v>
       </c>
@@ -18572,8 +18973,9 @@
       <c r="P352" s="1"/>
       <c r="Q352" s="1"/>
       <c r="R352" s="1"/>
-    </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S352" s="1"/>
+    </row>
+    <row r="353" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>2015012624</v>
       </c>
@@ -18623,8 +19025,9 @@
       <c r="P353" s="1"/>
       <c r="Q353" s="1"/>
       <c r="R353" s="1"/>
-    </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S353" s="1"/>
+    </row>
+    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>2015012828</v>
       </c>
@@ -18683,8 +19086,11 @@
         <f t="shared" ref="R354" si="67">P354-Q354</f>
         <v>30.324999999999989</v>
       </c>
-    </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S354" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="355" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>2015012828</v>
       </c>
@@ -18734,8 +19140,9 @@
       <c r="P355" s="1"/>
       <c r="Q355" s="1"/>
       <c r="R355" s="1"/>
-    </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S355" s="1"/>
+    </row>
+    <row r="356" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>2015012828</v>
       </c>
@@ -18785,8 +19192,9 @@
       <c r="P356" s="1"/>
       <c r="Q356" s="1"/>
       <c r="R356" s="1"/>
-    </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S356" s="1"/>
+    </row>
+    <row r="357" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>2015012828</v>
       </c>
@@ -18836,8 +19244,9 @@
       <c r="P357" s="1"/>
       <c r="Q357" s="1"/>
       <c r="R357" s="1"/>
-    </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S357" s="1"/>
+    </row>
+    <row r="358" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>2015012828</v>
       </c>
@@ -18887,8 +19296,9 @@
       <c r="P358" s="1"/>
       <c r="Q358" s="1"/>
       <c r="R358" s="1"/>
-    </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S358" s="1"/>
+    </row>
+    <row r="359" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>2015012828</v>
       </c>
@@ -18938,8 +19348,9 @@
       <c r="P359" s="1"/>
       <c r="Q359" s="1"/>
       <c r="R359" s="1"/>
-    </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S359" s="1"/>
+    </row>
+    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>2015012828</v>
       </c>
@@ -18989,8 +19400,9 @@
       <c r="P360" s="1"/>
       <c r="Q360" s="1"/>
       <c r="R360" s="1"/>
-    </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S360" s="1"/>
+    </row>
+    <row r="361" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>2015012828</v>
       </c>
@@ -19040,8 +19452,9 @@
       <c r="P361" s="1"/>
       <c r="Q361" s="1"/>
       <c r="R361" s="1"/>
-    </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S361" s="1"/>
+    </row>
+    <row r="362" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>2015012828</v>
       </c>
@@ -19091,8 +19504,9 @@
       <c r="P362" s="1"/>
       <c r="Q362" s="1"/>
       <c r="R362" s="1"/>
-    </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S362" s="1"/>
+    </row>
+    <row r="363" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>2015012828</v>
       </c>
@@ -19142,8 +19556,9 @@
       <c r="P363" s="1"/>
       <c r="Q363" s="1"/>
       <c r="R363" s="1"/>
-    </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S363" s="1"/>
+    </row>
+    <row r="364" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>2015012828</v>
       </c>
@@ -19193,8 +19608,9 @@
       <c r="P364" s="1"/>
       <c r="Q364" s="1"/>
       <c r="R364" s="1"/>
-    </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S364" s="1"/>
+    </row>
+    <row r="365" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>2015012828</v>
       </c>
@@ -19244,8 +19660,9 @@
       <c r="P365" s="1"/>
       <c r="Q365" s="1"/>
       <c r="R365" s="1"/>
-    </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S365" s="1"/>
+    </row>
+    <row r="366" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>2015012828</v>
       </c>
@@ -19295,8 +19712,9 @@
       <c r="P366" s="1"/>
       <c r="Q366" s="1"/>
       <c r="R366" s="1"/>
-    </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S366" s="1"/>
+    </row>
+    <row r="367" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>2015012828</v>
       </c>
@@ -19346,8 +19764,9 @@
       <c r="P367" s="1"/>
       <c r="Q367" s="1"/>
       <c r="R367" s="1"/>
-    </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S367" s="1"/>
+    </row>
+    <row r="368" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>2015012828</v>
       </c>
@@ -19397,8 +19816,9 @@
       <c r="P368" s="1"/>
       <c r="Q368" s="1"/>
       <c r="R368" s="1"/>
-    </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S368" s="1"/>
+    </row>
+    <row r="369" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>2015012828</v>
       </c>
@@ -19448,8 +19868,9 @@
       <c r="P369" s="1"/>
       <c r="Q369" s="1"/>
       <c r="R369" s="1"/>
-    </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S369" s="1"/>
+    </row>
+    <row r="370" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>2011012756</v>
       </c>
@@ -19508,8 +19929,11 @@
         <f t="shared" ref="R370" si="69">P370-Q370</f>
         <v>48.6875</v>
       </c>
-    </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S370" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="371" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>2011012756</v>
       </c>
@@ -19559,8 +19983,9 @@
       <c r="P371" s="1"/>
       <c r="Q371" s="1"/>
       <c r="R371" s="1"/>
-    </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S371" s="1"/>
+    </row>
+    <row r="372" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>2011012756</v>
       </c>
@@ -19610,8 +20035,9 @@
       <c r="P372" s="1"/>
       <c r="Q372" s="1"/>
       <c r="R372" s="1"/>
-    </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S372" s="1"/>
+    </row>
+    <row r="373" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>2011012756</v>
       </c>
@@ -19661,8 +20087,9 @@
       <c r="P373" s="1"/>
       <c r="Q373" s="1"/>
       <c r="R373" s="1"/>
-    </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S373" s="1"/>
+    </row>
+    <row r="374" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>2011012756</v>
       </c>
@@ -19712,8 +20139,9 @@
       <c r="P374" s="1"/>
       <c r="Q374" s="1"/>
       <c r="R374" s="1"/>
-    </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S374" s="1"/>
+    </row>
+    <row r="375" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>2011012756</v>
       </c>
@@ -19763,8 +20191,9 @@
       <c r="P375" s="1"/>
       <c r="Q375" s="1"/>
       <c r="R375" s="1"/>
-    </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S375" s="1"/>
+    </row>
+    <row r="376" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>2011012756</v>
       </c>
@@ -19814,8 +20243,9 @@
       <c r="P376" s="1"/>
       <c r="Q376" s="1"/>
       <c r="R376" s="1"/>
-    </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S376" s="1"/>
+    </row>
+    <row r="377" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>2011012756</v>
       </c>
@@ -19865,8 +20295,9 @@
       <c r="P377" s="1"/>
       <c r="Q377" s="1"/>
       <c r="R377" s="1"/>
-    </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S377" s="1"/>
+    </row>
+    <row r="378" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>2011012756</v>
       </c>
@@ -19916,8 +20347,9 @@
       <c r="P378" s="1"/>
       <c r="Q378" s="1"/>
       <c r="R378" s="1"/>
-    </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S378" s="1"/>
+    </row>
+    <row r="379" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>2011012756</v>
       </c>
@@ -19967,8 +20399,9 @@
       <c r="P379" s="1"/>
       <c r="Q379" s="1"/>
       <c r="R379" s="1"/>
-    </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S379" s="1"/>
+    </row>
+    <row r="380" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>2011012756</v>
       </c>
@@ -20018,8 +20451,9 @@
       <c r="P380" s="1"/>
       <c r="Q380" s="1"/>
       <c r="R380" s="1"/>
-    </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S380" s="1"/>
+    </row>
+    <row r="381" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>2011012756</v>
       </c>
@@ -20069,8 +20503,9 @@
       <c r="P381" s="1"/>
       <c r="Q381" s="1"/>
       <c r="R381" s="1"/>
-    </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S381" s="1"/>
+    </row>
+    <row r="382" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>2011012756</v>
       </c>
@@ -20120,8 +20555,9 @@
       <c r="P382" s="1"/>
       <c r="Q382" s="1"/>
       <c r="R382" s="1"/>
-    </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S382" s="1"/>
+    </row>
+    <row r="383" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>2011012756</v>
       </c>
@@ -20171,8 +20607,9 @@
       <c r="P383" s="1"/>
       <c r="Q383" s="1"/>
       <c r="R383" s="1"/>
-    </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S383" s="1"/>
+    </row>
+    <row r="384" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>2011012756</v>
       </c>
@@ -20222,8 +20659,9 @@
       <c r="P384" s="1"/>
       <c r="Q384" s="1"/>
       <c r="R384" s="1"/>
-    </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S384" s="1"/>
+    </row>
+    <row r="385" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>2011012756</v>
       </c>
@@ -20273,13 +20711,38 @@
       <c r="P385" s="1"/>
       <c r="Q385" s="1"/>
       <c r="R385" s="1"/>
+      <c r="S385" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="96">
+    <mergeCell ref="S290:S305"/>
+    <mergeCell ref="S306:S321"/>
+    <mergeCell ref="S322:S337"/>
+    <mergeCell ref="S338:S353"/>
+    <mergeCell ref="S354:S369"/>
+    <mergeCell ref="S370:S385"/>
+    <mergeCell ref="S194:S209"/>
+    <mergeCell ref="S210:S225"/>
+    <mergeCell ref="S226:S241"/>
+    <mergeCell ref="S242:S257"/>
+    <mergeCell ref="S258:S273"/>
+    <mergeCell ref="S274:S289"/>
+    <mergeCell ref="S98:S113"/>
+    <mergeCell ref="S114:S129"/>
+    <mergeCell ref="S130:S145"/>
+    <mergeCell ref="S146:S161"/>
+    <mergeCell ref="S162:S177"/>
+    <mergeCell ref="S178:S193"/>
     <mergeCell ref="R322:R337"/>
     <mergeCell ref="R338:R353"/>
     <mergeCell ref="R354:R369"/>
     <mergeCell ref="R370:R385"/>
+    <mergeCell ref="S2:S17"/>
+    <mergeCell ref="S18:S33"/>
+    <mergeCell ref="S34:S49"/>
+    <mergeCell ref="S50:S65"/>
+    <mergeCell ref="S66:S81"/>
+    <mergeCell ref="S82:S97"/>
     <mergeCell ref="R226:R241"/>
     <mergeCell ref="R242:R257"/>
     <mergeCell ref="R258:R273"/>
